--- a/code/experiment/dataset_similarity/data/test.xlsx
+++ b/code/experiment/dataset_similarity/data/test.xlsx
@@ -439,64 +439,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37.12261962890625</v>
+        <v>37.04856491088867</v>
       </c>
       <c r="C2">
-        <v>119.342170715332</v>
+        <v>116.2247085571289</v>
       </c>
       <c r="D2">
-        <v>101.6047973632812</v>
+        <v>99.30323028564453</v>
       </c>
       <c r="E2">
-        <v>96.02250671386719</v>
+        <v>93.58077239990234</v>
       </c>
       <c r="F2">
-        <v>104.4065933227539</v>
+        <v>104.8193740844727</v>
       </c>
       <c r="G2">
-        <v>83.20585632324219</v>
+        <v>81.62989807128906</v>
       </c>
       <c r="H2">
-        <v>89.22346496582031</v>
+        <v>91.11948394775391</v>
       </c>
       <c r="I2">
-        <v>107.6985855102539</v>
+        <v>105.6623764038086</v>
       </c>
       <c r="J2">
-        <v>94.92805480957031</v>
+        <v>95.63136291503906</v>
       </c>
       <c r="K2">
-        <v>101.8769989013672</v>
+        <v>100.2190856933594</v>
       </c>
       <c r="L2">
-        <v>140.6039733886719</v>
+        <v>139.8076629638672</v>
       </c>
       <c r="M2">
-        <v>131.7785949707031</v>
+        <v>134.2785949707031</v>
       </c>
       <c r="N2">
-        <v>137.357666015625</v>
+        <v>142.9081420898438</v>
       </c>
       <c r="O2">
-        <v>126.7443542480469</v>
+        <v>131.5299224853516</v>
       </c>
       <c r="P2">
-        <v>147.6087646484375</v>
+        <v>145.1028747558594</v>
       </c>
       <c r="Q2">
-        <v>107.6604156494141</v>
+        <v>104.5076599121094</v>
       </c>
       <c r="R2">
-        <v>127.2412796020508</v>
+        <v>127.7854537963867</v>
       </c>
       <c r="S2">
-        <v>121.2809371948242</v>
+        <v>121.6356658935547</v>
       </c>
       <c r="T2">
-        <v>150.1456146240234</v>
+        <v>146.2567138671875</v>
       </c>
       <c r="U2">
-        <v>143.1136322021484</v>
+        <v>148.4535827636719</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -504,64 +504,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>117.4837036132812</v>
+        <v>121.8609085083008</v>
       </c>
       <c r="C3">
-        <v>10.60525989532471</v>
+        <v>10.52995109558105</v>
       </c>
       <c r="D3">
-        <v>82.96115112304688</v>
+        <v>80.73394012451172</v>
       </c>
       <c r="E3">
-        <v>79.17973327636719</v>
+        <v>82.10772705078125</v>
       </c>
       <c r="F3">
-        <v>78.94089508056641</v>
+        <v>80.33177947998047</v>
       </c>
       <c r="G3">
-        <v>78.73171234130859</v>
+        <v>80.99899291992188</v>
       </c>
       <c r="H3">
-        <v>85.00241088867188</v>
+        <v>86.28655242919922</v>
       </c>
       <c r="I3">
-        <v>73.66764831542969</v>
+        <v>74.81045532226562</v>
       </c>
       <c r="J3">
-        <v>77.02816772460938</v>
+        <v>71.09016418457031</v>
       </c>
       <c r="K3">
-        <v>74.26847839355469</v>
+        <v>74.4764404296875</v>
       </c>
       <c r="L3">
-        <v>152.0186462402344</v>
+        <v>148.6530456542969</v>
       </c>
       <c r="M3">
-        <v>107.7748565673828</v>
+        <v>109.624382019043</v>
       </c>
       <c r="N3">
-        <v>170.1313781738281</v>
+        <v>172.6881256103516</v>
       </c>
       <c r="O3">
-        <v>107.0027008056641</v>
+        <v>115.406867980957</v>
       </c>
       <c r="P3">
-        <v>196.2935943603516</v>
+        <v>186.4736480712891</v>
       </c>
       <c r="Q3">
-        <v>84.48065948486328</v>
+        <v>85.19211578369141</v>
       </c>
       <c r="R3">
-        <v>154.0233154296875</v>
+        <v>152.3377380371094</v>
       </c>
       <c r="S3">
-        <v>90.75299835205078</v>
+        <v>93.72996520996094</v>
       </c>
       <c r="T3">
-        <v>184.4664306640625</v>
+        <v>174.4438934326172</v>
       </c>
       <c r="U3">
-        <v>145.9322052001953</v>
+        <v>147.7783660888672</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -569,64 +569,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>101.5231246948242</v>
+        <v>104.33251953125</v>
       </c>
       <c r="C4">
-        <v>84.20523071289062</v>
+        <v>87.62348937988281</v>
       </c>
       <c r="D4">
-        <v>48.21118927001953</v>
+        <v>49.01416778564453</v>
       </c>
       <c r="E4">
-        <v>82.49172973632812</v>
+        <v>83.01181793212891</v>
       </c>
       <c r="F4">
-        <v>87.64492797851562</v>
+        <v>90.88107299804688</v>
       </c>
       <c r="G4">
-        <v>92.10786437988281</v>
+        <v>94.04002380371094</v>
       </c>
       <c r="H4">
-        <v>84.39984130859375</v>
+        <v>87.08024597167969</v>
       </c>
       <c r="I4">
-        <v>93.31707763671875</v>
+        <v>95.18822479248047</v>
       </c>
       <c r="J4">
-        <v>81.83531951904297</v>
+        <v>82.62330627441406</v>
       </c>
       <c r="K4">
-        <v>89.00143432617188</v>
+        <v>90.72400665283203</v>
       </c>
       <c r="L4">
-        <v>135.8425598144531</v>
+        <v>132.2798461914062</v>
       </c>
       <c r="M4">
-        <v>111.8481674194336</v>
+        <v>114.7728424072266</v>
       </c>
       <c r="N4">
-        <v>145.2923278808594</v>
+        <v>145.6783294677734</v>
       </c>
       <c r="O4">
-        <v>108.3845367431641</v>
+        <v>114.2616348266602</v>
       </c>
       <c r="P4">
-        <v>159.8669738769531</v>
+        <v>150.4446563720703</v>
       </c>
       <c r="Q4">
-        <v>95.33879089355469</v>
+        <v>97.35181427001953</v>
       </c>
       <c r="R4">
-        <v>133.0988922119141</v>
+        <v>130.6140594482422</v>
       </c>
       <c r="S4">
-        <v>102.626708984375</v>
+        <v>106.6384963989258</v>
       </c>
       <c r="T4">
-        <v>156.7918395996094</v>
+        <v>148.0071105957031</v>
       </c>
       <c r="U4">
-        <v>132.4402160644531</v>
+        <v>134.3564605712891</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -634,64 +634,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>95.86292266845703</v>
+        <v>94.57090759277344</v>
       </c>
       <c r="C5">
-        <v>79.7298583984375</v>
+        <v>82.51094055175781</v>
       </c>
       <c r="D5">
-        <v>82.29264831542969</v>
+        <v>80.21111297607422</v>
       </c>
       <c r="E5">
-        <v>40.67641830444336</v>
+        <v>41.59727096557617</v>
       </c>
       <c r="F5">
-        <v>89.89562225341797</v>
+        <v>91.91691589355469</v>
       </c>
       <c r="G5">
-        <v>67.53134918212891</v>
+        <v>67.31576538085938</v>
       </c>
       <c r="H5">
-        <v>93.96764373779297</v>
+        <v>95.36994171142578</v>
       </c>
       <c r="I5">
-        <v>88.98886871337891</v>
+        <v>92.20796203613281</v>
       </c>
       <c r="J5">
-        <v>72.01716613769531</v>
+        <v>71.775146484375</v>
       </c>
       <c r="K5">
-        <v>82.36244201660156</v>
+        <v>85.52301025390625</v>
       </c>
       <c r="L5">
-        <v>132.7967834472656</v>
+        <v>128.7927551269531</v>
       </c>
       <c r="M5">
-        <v>104.1240386962891</v>
+        <v>105.0334548950195</v>
       </c>
       <c r="N5">
-        <v>146.9705810546875</v>
+        <v>148.5506744384766</v>
       </c>
       <c r="O5">
-        <v>101.654914855957</v>
+        <v>106.4296035766602</v>
       </c>
       <c r="P5">
-        <v>163.185302734375</v>
+        <v>154.8151397705078</v>
       </c>
       <c r="Q5">
-        <v>100.5968856811523</v>
+        <v>102.5582580566406</v>
       </c>
       <c r="R5">
-        <v>134.1067810058594</v>
+        <v>133.3250427246094</v>
       </c>
       <c r="S5">
-        <v>107.9623413085938</v>
+        <v>113.2513275146484</v>
       </c>
       <c r="T5">
-        <v>163.7151794433594</v>
+        <v>157.3602447509766</v>
       </c>
       <c r="U5">
-        <v>141.0436401367188</v>
+        <v>143.5457153320312</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -699,64 +699,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>104.7734069824219</v>
+        <v>106.5623474121094</v>
       </c>
       <c r="C6">
-        <v>80.27449035644531</v>
+        <v>78.00511932373047</v>
       </c>
       <c r="D6">
-        <v>86.75618743896484</v>
+        <v>85.34963989257812</v>
       </c>
       <c r="E6">
-        <v>88.21193695068359</v>
+        <v>88.61574554443359</v>
       </c>
       <c r="F6">
-        <v>34.23759460449219</v>
+        <v>34.34994125366211</v>
       </c>
       <c r="G6">
-        <v>78.48827362060547</v>
+        <v>78.42668914794922</v>
       </c>
       <c r="H6">
-        <v>77.61351776123047</v>
+        <v>77.70036315917969</v>
       </c>
       <c r="I6">
-        <v>64.05437469482422</v>
+        <v>65.63207244873047</v>
       </c>
       <c r="J6">
-        <v>76.85765838623047</v>
+        <v>76.28629302978516</v>
       </c>
       <c r="K6">
-        <v>47.3476676940918</v>
+        <v>47.54357528686523</v>
       </c>
       <c r="L6">
-        <v>136.8376770019531</v>
+        <v>136.9450378417969</v>
       </c>
       <c r="M6">
-        <v>106.2959289550781</v>
+        <v>109.8769149780273</v>
       </c>
       <c r="N6">
-        <v>151.7346649169922</v>
+        <v>156.6347045898438</v>
       </c>
       <c r="O6">
-        <v>108.0771255493164</v>
+        <v>115.7106170654297</v>
       </c>
       <c r="P6">
-        <v>171.3457489013672</v>
+        <v>165.6335296630859</v>
       </c>
       <c r="Q6">
-        <v>90.43195343017578</v>
+        <v>87.36752319335938</v>
       </c>
       <c r="R6">
-        <v>137.8258056640625</v>
+        <v>137.5822601318359</v>
       </c>
       <c r="S6">
-        <v>84.94197082519531</v>
+        <v>85.74855041503906</v>
       </c>
       <c r="T6">
-        <v>159.6318359375</v>
+        <v>152.9503173828125</v>
       </c>
       <c r="U6">
-        <v>150.4629211425781</v>
+        <v>154.0840911865234</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -764,64 +764,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81.08164978027344</v>
+        <v>84.39426422119141</v>
       </c>
       <c r="C7">
-        <v>81.36060333251953</v>
+        <v>82.43405914306641</v>
       </c>
       <c r="D7">
-        <v>92.02846527099609</v>
+        <v>89.60660552978516</v>
       </c>
       <c r="E7">
-        <v>66.579833984375</v>
+        <v>66.23081207275391</v>
       </c>
       <c r="F7">
-        <v>79.38056182861328</v>
+        <v>80.96720123291016</v>
       </c>
       <c r="G7">
-        <v>39.85382461547852</v>
+        <v>40.05046844482422</v>
       </c>
       <c r="H7">
-        <v>81.18446350097656</v>
+        <v>82.19808959960938</v>
       </c>
       <c r="I7">
-        <v>82.27601623535156</v>
+        <v>82.95951843261719</v>
       </c>
       <c r="J7">
-        <v>68.69583129882812</v>
+        <v>68.121826171875</v>
       </c>
       <c r="K7">
-        <v>73.00862884521484</v>
+        <v>73.56474304199219</v>
       </c>
       <c r="L7">
-        <v>132.6053771972656</v>
+        <v>131.2384796142578</v>
       </c>
       <c r="M7">
-        <v>107.3625030517578</v>
+        <v>109.3285217285156</v>
       </c>
       <c r="N7">
-        <v>149.5931854248047</v>
+        <v>151.9048767089844</v>
       </c>
       <c r="O7">
-        <v>104.2243804931641</v>
+        <v>112.0103378295898</v>
       </c>
       <c r="P7">
-        <v>169.0161285400391</v>
+        <v>161.3418273925781</v>
       </c>
       <c r="Q7">
-        <v>93.99687194824219</v>
+        <v>92.76437377929688</v>
       </c>
       <c r="R7">
-        <v>135.8853759765625</v>
+        <v>135.2824401855469</v>
       </c>
       <c r="S7">
-        <v>107.5201416015625</v>
+        <v>109.3485260009766</v>
       </c>
       <c r="T7">
-        <v>159.9994964599609</v>
+        <v>152.7737274169922</v>
       </c>
       <c r="U7">
-        <v>144.1505279541016</v>
+        <v>146.328857421875</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -829,64 +829,64 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>90.10362243652344</v>
+        <v>95.49853515625</v>
       </c>
       <c r="C8">
-        <v>88.25058746337891</v>
+        <v>78.07865905761719</v>
       </c>
       <c r="D8">
-        <v>85.50767517089844</v>
+        <v>83.01023101806641</v>
       </c>
       <c r="E8">
-        <v>97.82992553710938</v>
+        <v>90.25617980957031</v>
       </c>
       <c r="F8">
-        <v>77.19313812255859</v>
+        <v>76.40346527099609</v>
       </c>
       <c r="G8">
-        <v>84.06291961669922</v>
+        <v>77.30220794677734</v>
       </c>
       <c r="H8">
-        <v>33.33592987060547</v>
+        <v>34.49910736083984</v>
       </c>
       <c r="I8">
-        <v>97.26674652099609</v>
+        <v>93.38496398925781</v>
       </c>
       <c r="J8">
-        <v>87.99942779541016</v>
+        <v>80.36553955078125</v>
       </c>
       <c r="K8">
-        <v>82.2620849609375</v>
+        <v>79.37932586669922</v>
       </c>
       <c r="L8">
-        <v>135.9920349121094</v>
+        <v>134.9807281494141</v>
       </c>
       <c r="M8">
-        <v>108.2542419433594</v>
+        <v>105.5031356811523</v>
       </c>
       <c r="N8">
-        <v>147.3540954589844</v>
+        <v>154.4997863769531</v>
       </c>
       <c r="O8">
-        <v>102.7944793701172</v>
+        <v>106.5859451293945</v>
       </c>
       <c r="P8">
-        <v>162.1524505615234</v>
+        <v>160.9879913330078</v>
       </c>
       <c r="Q8">
-        <v>94.22247314453125</v>
+        <v>89.59268951416016</v>
       </c>
       <c r="R8">
-        <v>133.48388671875</v>
+        <v>136.7579956054688</v>
       </c>
       <c r="S8">
-        <v>92.32865905761719</v>
+        <v>92.98548889160156</v>
       </c>
       <c r="T8">
-        <v>156.4803924560547</v>
+        <v>153.2405090332031</v>
       </c>
       <c r="U8">
-        <v>144.3215637207031</v>
+        <v>147.9067230224609</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -894,64 +894,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>108.3406219482422</v>
+        <v>110.5915374755859</v>
       </c>
       <c r="C9">
-        <v>73.94293212890625</v>
+        <v>73.77248382568359</v>
       </c>
       <c r="D9">
-        <v>93.27530670166016</v>
+        <v>90.85931396484375</v>
       </c>
       <c r="E9">
-        <v>89.32090759277344</v>
+        <v>89.19293975830078</v>
       </c>
       <c r="F9">
-        <v>64.22239685058594</v>
+        <v>65.79374694824219</v>
       </c>
       <c r="G9">
-        <v>82.02842712402344</v>
+        <v>84.65431213378906</v>
       </c>
       <c r="H9">
-        <v>98.00202941894531</v>
+        <v>98.28916931152344</v>
       </c>
       <c r="I9">
-        <v>28.87383651733398</v>
+        <v>27.83901214599609</v>
       </c>
       <c r="J9">
-        <v>84.01513671875</v>
+        <v>81.51232147216797</v>
       </c>
       <c r="K9">
-        <v>55.14347076416016</v>
+        <v>52.56353759765625</v>
       </c>
       <c r="L9">
-        <v>137.672607421875</v>
+        <v>135.5603790283203</v>
       </c>
       <c r="M9">
-        <v>107.5287475585938</v>
+        <v>108.9211883544922</v>
       </c>
       <c r="N9">
-        <v>157.7238616943359</v>
+        <v>161.2816467285156</v>
       </c>
       <c r="O9">
-        <v>109.2891464233398</v>
+        <v>114.981201171875</v>
       </c>
       <c r="P9">
-        <v>179.2481994628906</v>
+        <v>172.2004241943359</v>
       </c>
       <c r="Q9">
-        <v>93.66028594970703</v>
+        <v>93.6717529296875</v>
       </c>
       <c r="R9">
-        <v>141.9209442138672</v>
+        <v>140.5983123779297</v>
       </c>
       <c r="S9">
-        <v>102.6857604980469</v>
+        <v>104.3409423828125</v>
       </c>
       <c r="T9">
-        <v>170.5389709472656</v>
+        <v>161.3546142578125</v>
       </c>
       <c r="U9">
-        <v>154.2512817382812</v>
+        <v>157.2719421386719</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -959,64 +959,64 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>95.66151428222656</v>
+        <v>99.25003814697266</v>
       </c>
       <c r="C10">
-        <v>74.95515441894531</v>
+        <v>75.61759185791016</v>
       </c>
       <c r="D10">
-        <v>81.10285949707031</v>
+        <v>78.69023895263672</v>
       </c>
       <c r="E10">
-        <v>71.82468414306641</v>
+        <v>73.96133422851562</v>
       </c>
       <c r="F10">
-        <v>75.71173858642578</v>
+        <v>77.19956207275391</v>
       </c>
       <c r="G10">
-        <v>68.20735168457031</v>
+        <v>68.93463134765625</v>
       </c>
       <c r="H10">
-        <v>86.85248565673828</v>
+        <v>86.06492614746094</v>
       </c>
       <c r="I10">
-        <v>82.56211853027344</v>
+        <v>83.13086700439453</v>
       </c>
       <c r="J10">
-        <v>43.82448196411133</v>
+        <v>43.05820465087891</v>
       </c>
       <c r="K10">
-        <v>69.44413757324219</v>
+        <v>70.41397857666016</v>
       </c>
       <c r="L10">
-        <v>125.6408462524414</v>
+        <v>122.4244232177734</v>
       </c>
       <c r="M10">
-        <v>99.05577087402344</v>
+        <v>99.85482788085938</v>
       </c>
       <c r="N10">
-        <v>144.8323059082031</v>
+        <v>145.5808258056641</v>
       </c>
       <c r="O10">
-        <v>95.70191955566406</v>
+        <v>99.7554931640625</v>
       </c>
       <c r="P10">
-        <v>160.314208984375</v>
+        <v>152.6044158935547</v>
       </c>
       <c r="Q10">
-        <v>103.5367279052734</v>
+        <v>103.711311340332</v>
       </c>
       <c r="R10">
-        <v>130.978271484375</v>
+        <v>130.5168762207031</v>
       </c>
       <c r="S10">
-        <v>109.9383392333984</v>
+        <v>112.0076141357422</v>
       </c>
       <c r="T10">
-        <v>161.2735290527344</v>
+        <v>153.1222534179688</v>
       </c>
       <c r="U10">
-        <v>140.4496154785156</v>
+        <v>142.9146423339844</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1024,64 +1024,64 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>102.4848098754883</v>
+        <v>103.7990875244141</v>
       </c>
       <c r="C11">
-        <v>76.64000701904297</v>
+        <v>77.00387573242188</v>
       </c>
       <c r="D11">
-        <v>89.26142883300781</v>
+        <v>86.09373474121094</v>
       </c>
       <c r="E11">
-        <v>83.9578857421875</v>
+        <v>83.88867950439453</v>
       </c>
       <c r="F11">
-        <v>48.15052795410156</v>
+        <v>46.4107780456543</v>
       </c>
       <c r="G11">
-        <v>73.48705291748047</v>
+        <v>75.11128234863281</v>
       </c>
       <c r="H11">
-        <v>83.59579467773438</v>
+        <v>82.85871124267578</v>
       </c>
       <c r="I11">
-        <v>51.09331512451172</v>
+        <v>53.81736755371094</v>
       </c>
       <c r="J11">
-        <v>72.13323974609375</v>
+        <v>70.65770721435547</v>
       </c>
       <c r="K11">
-        <v>30.51025009155273</v>
+        <v>30.21752738952637</v>
       </c>
       <c r="L11">
-        <v>135.1573486328125</v>
+        <v>133.5157470703125</v>
       </c>
       <c r="M11">
-        <v>98.05816650390625</v>
+        <v>100.6444320678711</v>
       </c>
       <c r="N11">
-        <v>153.5733337402344</v>
+        <v>156.6451568603516</v>
       </c>
       <c r="O11">
-        <v>101.2498931884766</v>
+        <v>107.4190826416016</v>
       </c>
       <c r="P11">
-        <v>172.3609771728516</v>
+        <v>165.0131072998047</v>
       </c>
       <c r="Q11">
-        <v>94.11240386962891</v>
+        <v>93.22045135498047</v>
       </c>
       <c r="R11">
-        <v>138.1198577880859</v>
+        <v>137.0732727050781</v>
       </c>
       <c r="S11">
-        <v>94.01467132568359</v>
+        <v>95.4530029296875</v>
       </c>
       <c r="T11">
-        <v>165.2874908447266</v>
+        <v>156.641357421875</v>
       </c>
       <c r="U11">
-        <v>154.6167144775391</v>
+        <v>156.4654235839844</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1089,64 +1089,64 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>140.9806823730469</v>
+        <v>143.2130432128906</v>
       </c>
       <c r="C12">
-        <v>151.9326934814453</v>
+        <v>152.2440643310547</v>
       </c>
       <c r="D12">
-        <v>136.1686401367188</v>
+        <v>136.7625885009766</v>
       </c>
       <c r="E12">
-        <v>132.7751770019531</v>
+        <v>132.0304260253906</v>
       </c>
       <c r="F12">
-        <v>138.3155364990234</v>
+        <v>138.8352661132812</v>
       </c>
       <c r="G12">
-        <v>134.5363159179688</v>
+        <v>133.9935913085938</v>
       </c>
       <c r="H12">
-        <v>135.4324798583984</v>
+        <v>133.7742156982422</v>
       </c>
       <c r="I12">
-        <v>138.1393432617188</v>
+        <v>137.6748809814453</v>
       </c>
       <c r="J12">
-        <v>125.4509353637695</v>
+        <v>127.9531936645508</v>
       </c>
       <c r="K12">
-        <v>135.34228515625</v>
+        <v>136.4179229736328</v>
       </c>
       <c r="L12">
-        <v>24.64794540405273</v>
+        <v>27.0704402923584</v>
       </c>
       <c r="M12">
-        <v>86.51107788085938</v>
+        <v>87.63490295410156</v>
       </c>
       <c r="N12">
-        <v>73.68625640869141</v>
+        <v>74.41683959960938</v>
       </c>
       <c r="O12">
-        <v>61.24906921386719</v>
+        <v>61.7815055847168</v>
       </c>
       <c r="P12">
-        <v>80.60297393798828</v>
+        <v>80.23681640625</v>
       </c>
       <c r="Q12">
-        <v>154.3890533447266</v>
+        <v>150.4899291992188</v>
       </c>
       <c r="R12">
-        <v>51.41603851318359</v>
+        <v>58.1044921875</v>
       </c>
       <c r="S12">
-        <v>158.2863159179688</v>
+        <v>158.2990875244141</v>
       </c>
       <c r="T12">
-        <v>130.0308074951172</v>
+        <v>121.7659149169922</v>
       </c>
       <c r="U12">
-        <v>148.8560943603516</v>
+        <v>150.9515075683594</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1154,64 +1154,64 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>132.2580871582031</v>
+        <v>136.293701171875</v>
       </c>
       <c r="C13">
-        <v>107.5581817626953</v>
+        <v>111.1760635375977</v>
       </c>
       <c r="D13">
-        <v>112.4483795166016</v>
+        <v>113.8727645874023</v>
       </c>
       <c r="E13">
-        <v>103.2628936767578</v>
+        <v>105.4872665405273</v>
       </c>
       <c r="F13">
-        <v>110.6508636474609</v>
+        <v>108.0711135864258</v>
       </c>
       <c r="G13">
-        <v>107.7880554199219</v>
+        <v>109.0649871826172</v>
       </c>
       <c r="H13">
-        <v>107.0779342651367</v>
+        <v>107.4079513549805</v>
       </c>
       <c r="I13">
-        <v>106.0123672485352</v>
+        <v>109.1595764160156</v>
       </c>
       <c r="J13">
-        <v>99.87767028808594</v>
+        <v>100.556526184082</v>
       </c>
       <c r="K13">
-        <v>96.787353515625</v>
+        <v>99.59660339355469</v>
       </c>
       <c r="L13">
-        <v>87.07414245605469</v>
+        <v>83.77870941162109</v>
       </c>
       <c r="M13">
-        <v>14.96382904052734</v>
+        <v>14.67265701293945</v>
       </c>
       <c r="N13">
-        <v>119.3135681152344</v>
+        <v>117.6241760253906</v>
       </c>
       <c r="O13">
-        <v>49.49253082275391</v>
+        <v>51.48383712768555</v>
       </c>
       <c r="P13">
-        <v>122.4004821777344</v>
+        <v>116.2650604248047</v>
       </c>
       <c r="Q13">
-        <v>136.2467803955078</v>
+        <v>136.8275451660156</v>
       </c>
       <c r="R13">
-        <v>101.1160354614258</v>
+        <v>102.9555511474609</v>
       </c>
       <c r="S13">
-        <v>138.3091735839844</v>
+        <v>141.541015625</v>
       </c>
       <c r="T13">
-        <v>170.3744812011719</v>
+        <v>161.5540771484375</v>
       </c>
       <c r="U13">
-        <v>167.2986450195312</v>
+        <v>170.1242218017578</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1219,64 +1219,64 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>140.5145111083984</v>
+        <v>151.4696960449219</v>
       </c>
       <c r="C14">
-        <v>169.17578125</v>
+        <v>188.3257141113281</v>
       </c>
       <c r="D14">
-        <v>145.5864715576172</v>
+        <v>161.3003082275391</v>
       </c>
       <c r="E14">
-        <v>148.8770294189453</v>
+        <v>161.5663757324219</v>
       </c>
       <c r="F14">
-        <v>153.2473754882812</v>
+        <v>169.3002014160156</v>
       </c>
       <c r="G14">
-        <v>151.1082611083984</v>
+        <v>164.8320465087891</v>
       </c>
       <c r="H14">
-        <v>148.1729125976562</v>
+        <v>160.1350708007812</v>
       </c>
       <c r="I14">
-        <v>158.2698059082031</v>
+        <v>173.6161956787109</v>
       </c>
       <c r="J14">
-        <v>144.6837005615234</v>
+        <v>160.5693817138672</v>
       </c>
       <c r="K14">
-        <v>154.1504364013672</v>
+        <v>170.8674163818359</v>
       </c>
       <c r="L14">
-        <v>72.28300476074219</v>
+        <v>78.91497802734375</v>
       </c>
       <c r="M14">
-        <v>116.508430480957</v>
+        <v>126.9706344604492</v>
       </c>
       <c r="N14">
-        <v>28.30629730224609</v>
+        <v>27.79583168029785</v>
       </c>
       <c r="O14">
-        <v>97.20587158203125</v>
+        <v>103.1646423339844</v>
       </c>
       <c r="P14">
-        <v>46.89273071289062</v>
+        <v>44.86675643920898</v>
       </c>
       <c r="Q14">
-        <v>146.7689514160156</v>
+        <v>159.8186798095703</v>
       </c>
       <c r="R14">
-        <v>44.64925384521484</v>
+        <v>46.41567230224609</v>
       </c>
       <c r="S14">
-        <v>148.7530517578125</v>
+        <v>162.4081420898438</v>
       </c>
       <c r="T14">
-        <v>97.70646667480469</v>
+        <v>96.74531555175781</v>
       </c>
       <c r="U14">
-        <v>129.3194885253906</v>
+        <v>138.8517303466797</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1284,64 +1284,64 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>134.3523712158203</v>
+        <v>133.8615264892578</v>
       </c>
       <c r="C15">
-        <v>119.398307800293</v>
+        <v>113.3209686279297</v>
       </c>
       <c r="D15">
-        <v>116.9676055908203</v>
+        <v>113.0457077026367</v>
       </c>
       <c r="E15">
-        <v>110.2534713745117</v>
+        <v>107.0497283935547</v>
       </c>
       <c r="F15">
-        <v>119.5958404541016</v>
+        <v>113.0812530517578</v>
       </c>
       <c r="G15">
-        <v>115.1364135742188</v>
+        <v>109.9263153076172</v>
       </c>
       <c r="H15">
-        <v>109.5893783569336</v>
+        <v>104.8334045410156</v>
       </c>
       <c r="I15">
-        <v>117.7497024536133</v>
+        <v>113.7844696044922</v>
       </c>
       <c r="J15">
-        <v>103.0548553466797</v>
+        <v>99.54140472412109</v>
       </c>
       <c r="K15">
-        <v>108.8490295410156</v>
+        <v>105.9109725952148</v>
       </c>
       <c r="L15">
-        <v>61.51811981201172</v>
+        <v>58.81225204467773</v>
       </c>
       <c r="M15">
-        <v>52.19241714477539</v>
+        <v>52.59304046630859</v>
       </c>
       <c r="N15">
-        <v>99.42021942138672</v>
+        <v>96.44248962402344</v>
       </c>
       <c r="O15">
-        <v>23.39330673217773</v>
+        <v>24.39241218566895</v>
       </c>
       <c r="P15">
-        <v>96.5047607421875</v>
+        <v>94.29019165039062</v>
       </c>
       <c r="Q15">
-        <v>145.3549346923828</v>
+        <v>136.2827453613281</v>
       </c>
       <c r="R15">
-        <v>76.48302459716797</v>
+        <v>77.78964233398438</v>
       </c>
       <c r="S15">
-        <v>144.0440673828125</v>
+        <v>139.9627532958984</v>
       </c>
       <c r="T15">
-        <v>144.3853759765625</v>
+        <v>134.0281372070312</v>
       </c>
       <c r="U15">
-        <v>153.8984222412109</v>
+        <v>153.0466613769531</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1349,64 +1349,64 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>144.4333190917969</v>
+        <v>149.9081115722656</v>
       </c>
       <c r="C16">
-        <v>187.6454162597656</v>
+        <v>195.4469146728516</v>
       </c>
       <c r="D16">
-        <v>153.6171569824219</v>
+        <v>163.0534362792969</v>
       </c>
       <c r="E16">
-        <v>157.6903991699219</v>
+        <v>163.4985046386719</v>
       </c>
       <c r="F16">
-        <v>165.5322723388672</v>
+        <v>173.3729553222656</v>
       </c>
       <c r="G16">
-        <v>163.8908996582031</v>
+        <v>170.2787628173828</v>
       </c>
       <c r="H16">
-        <v>156.5386810302734</v>
+        <v>162.3363647460938</v>
       </c>
       <c r="I16">
-        <v>172.2995452880859</v>
+        <v>177.8876037597656</v>
       </c>
       <c r="J16">
-        <v>152.0419464111328</v>
+        <v>163.0993957519531</v>
       </c>
       <c r="K16">
-        <v>166.0602111816406</v>
+        <v>174.2469787597656</v>
       </c>
       <c r="L16">
-        <v>77.55055999755859</v>
+        <v>80.60258483886719</v>
       </c>
       <c r="M16">
-        <v>115.0270690917969</v>
+        <v>122.012939453125</v>
       </c>
       <c r="N16">
-        <v>45.36233520507812</v>
+        <v>45.50538635253906</v>
       </c>
       <c r="O16">
-        <v>94.22868347167969</v>
+        <v>95.41283416748047</v>
       </c>
       <c r="P16">
-        <v>25.8751277923584</v>
+        <v>26.66733551025391</v>
       </c>
       <c r="Q16">
-        <v>170.8728485107422</v>
+        <v>173.2882537841797</v>
       </c>
       <c r="R16">
-        <v>47.41955947875977</v>
+        <v>48.73561096191406</v>
       </c>
       <c r="S16">
-        <v>166.5379943847656</v>
+        <v>170.932861328125</v>
       </c>
       <c r="T16">
-        <v>103.7707824707031</v>
+        <v>99.38751220703125</v>
       </c>
       <c r="U16">
-        <v>142.1696014404297</v>
+        <v>147.0574645996094</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1414,64 +1414,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>106.4294967651367</v>
+        <v>107.1289443969727</v>
       </c>
       <c r="C17">
-        <v>83.45140075683594</v>
+        <v>82.85788726806641</v>
       </c>
       <c r="D17">
-        <v>93.78826904296875</v>
+        <v>90.38301086425781</v>
       </c>
       <c r="E17">
-        <v>100.3417053222656</v>
+        <v>98.930908203125</v>
       </c>
       <c r="F17">
-        <v>88.82432556152344</v>
+        <v>87.04315185546875</v>
       </c>
       <c r="G17">
-        <v>90.70970153808594</v>
+        <v>90.42366790771484</v>
       </c>
       <c r="H17">
-        <v>93.01748657226562</v>
+        <v>90.99691009521484</v>
       </c>
       <c r="I17">
-        <v>93.26644897460938</v>
+        <v>90.2518310546875</v>
       </c>
       <c r="J17">
-        <v>103.4209594726562</v>
+        <v>98.60749053955078</v>
       </c>
       <c r="K17">
-        <v>92.68828582763672</v>
+        <v>89.28292846679688</v>
       </c>
       <c r="L17">
-        <v>152.7565307617188</v>
+        <v>150.2666473388672</v>
       </c>
       <c r="M17">
-        <v>134.5232849121094</v>
+        <v>134.8755950927734</v>
       </c>
       <c r="N17">
-        <v>144.8875885009766</v>
+        <v>149.7983856201172</v>
       </c>
       <c r="O17">
-        <v>131.6796264648438</v>
+        <v>137.8363494873047</v>
       </c>
       <c r="P17">
-        <v>175.4854278564453</v>
+        <v>168.188232421875</v>
       </c>
       <c r="Q17">
-        <v>37.50384521484375</v>
+        <v>37.27532577514648</v>
       </c>
       <c r="R17">
-        <v>136.7728576660156</v>
+        <v>132.6991271972656</v>
       </c>
       <c r="S17">
-        <v>58.45780181884766</v>
+        <v>56.67938232421875</v>
       </c>
       <c r="T17">
-        <v>129.9405364990234</v>
+        <v>124.8406295776367</v>
       </c>
       <c r="U17">
-        <v>98.41830444335938</v>
+        <v>103.4997482299805</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1479,64 +1479,64 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>126.8815231323242</v>
+        <v>130.771240234375</v>
       </c>
       <c r="C18">
-        <v>150.2924499511719</v>
+        <v>156.9263916015625</v>
       </c>
       <c r="D18">
-        <v>131.5314788818359</v>
+        <v>138.0268402099609</v>
       </c>
       <c r="E18">
-        <v>132.888671875</v>
+        <v>136.837890625</v>
       </c>
       <c r="F18">
-        <v>136.9173278808594</v>
+        <v>141.5348663330078</v>
       </c>
       <c r="G18">
-        <v>134.8589630126953</v>
+        <v>138.9014434814453</v>
       </c>
       <c r="H18">
-        <v>132.7362365722656</v>
+        <v>135.5519104003906</v>
       </c>
       <c r="I18">
-        <v>139.6234130859375</v>
+        <v>143.5870819091797</v>
       </c>
       <c r="J18">
-        <v>129.1177215576172</v>
+        <v>135.2148590087891</v>
       </c>
       <c r="K18">
-        <v>136.5962066650391</v>
+        <v>142.2752838134766</v>
       </c>
       <c r="L18">
-        <v>54.8608512878418</v>
+        <v>56.80648040771484</v>
       </c>
       <c r="M18">
-        <v>100.9521331787109</v>
+        <v>103.7635650634766</v>
       </c>
       <c r="N18">
-        <v>46.32919311523438</v>
+        <v>44.94369506835938</v>
       </c>
       <c r="O18">
-        <v>77.4783935546875</v>
+        <v>77.58258819580078</v>
       </c>
       <c r="P18">
-        <v>52.75045776367188</v>
+        <v>49.71705627441406</v>
       </c>
       <c r="Q18">
-        <v>134.4557342529297</v>
+        <v>136.0722808837891</v>
       </c>
       <c r="R18">
-        <v>29.98398399353027</v>
+        <v>28.88288116455078</v>
       </c>
       <c r="S18">
-        <v>137.9825134277344</v>
+        <v>141.1864929199219</v>
       </c>
       <c r="T18">
-        <v>101.1183013916016</v>
+        <v>93.82906341552734</v>
       </c>
       <c r="U18">
-        <v>127.9870529174805</v>
+        <v>132.6527099609375</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1544,64 +1544,64 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>121.5031433105469</v>
+        <v>123.0758438110352</v>
       </c>
       <c r="C19">
-        <v>91.73073577880859</v>
+        <v>91.72123718261719</v>
       </c>
       <c r="D19">
-        <v>100.8514785766602</v>
+        <v>99.92296600341797</v>
       </c>
       <c r="E19">
-        <v>109.8546600341797</v>
+        <v>107.5042877197266</v>
       </c>
       <c r="F19">
-        <v>86.53325653076172</v>
+        <v>85.15316772460938</v>
       </c>
       <c r="G19">
-        <v>107.2645568847656</v>
+        <v>106.242431640625</v>
       </c>
       <c r="H19">
-        <v>93.44349670410156</v>
+        <v>92.95436096191406</v>
       </c>
       <c r="I19">
-        <v>104.4154052734375</v>
+        <v>101.7917938232422</v>
       </c>
       <c r="J19">
-        <v>111.3723297119141</v>
+        <v>106.908561706543</v>
       </c>
       <c r="K19">
-        <v>94.9600830078125</v>
+        <v>93.00053405761719</v>
       </c>
       <c r="L19">
-        <v>159.0714416503906</v>
+        <v>156.66796875</v>
       </c>
       <c r="M19">
-        <v>138.8697204589844</v>
+        <v>139.3087005615234</v>
       </c>
       <c r="N19">
-        <v>147.5990905761719</v>
+        <v>151.0215454101562</v>
       </c>
       <c r="O19">
-        <v>134.5602416992188</v>
+        <v>139.25</v>
       </c>
       <c r="P19">
-        <v>171.212646484375</v>
+        <v>164.8016815185547</v>
       </c>
       <c r="Q19">
-        <v>58.11051559448242</v>
+        <v>55.13680267333984</v>
       </c>
       <c r="R19">
-        <v>140.8006134033203</v>
+        <v>135.5445709228516</v>
       </c>
       <c r="S19">
-        <v>17.45754241943359</v>
+        <v>18.27492713928223</v>
       </c>
       <c r="T19">
-        <v>122.3699035644531</v>
+        <v>117.5656280517578</v>
       </c>
       <c r="U19">
-        <v>102.2824401855469</v>
+        <v>105.9176483154297</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1609,64 +1609,64 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>145.4974975585938</v>
+        <v>147.4977264404297</v>
       </c>
       <c r="C20">
-        <v>174.7569885253906</v>
+        <v>177.7483825683594</v>
       </c>
       <c r="D20">
-        <v>149.6851806640625</v>
+        <v>152.3160400390625</v>
       </c>
       <c r="E20">
-        <v>157.4606018066406</v>
+        <v>157.8908996582031</v>
       </c>
       <c r="F20">
-        <v>152.7899627685547</v>
+        <v>155.825927734375</v>
       </c>
       <c r="G20">
-        <v>153.9700927734375</v>
+        <v>155.3903045654297</v>
       </c>
       <c r="H20">
-        <v>149.6781463623047</v>
+        <v>151.379150390625</v>
       </c>
       <c r="I20">
-        <v>162.6743316650391</v>
+        <v>164.1264190673828</v>
       </c>
       <c r="J20">
-        <v>151.917236328125</v>
+        <v>156.7554626464844</v>
       </c>
       <c r="K20">
-        <v>157.73583984375</v>
+        <v>161.0976867675781</v>
       </c>
       <c r="L20">
-        <v>123.9927825927734</v>
+        <v>124.4977111816406</v>
       </c>
       <c r="M20">
-        <v>159.5976409912109</v>
+        <v>163.6216278076172</v>
       </c>
       <c r="N20">
-        <v>94.43901062011719</v>
+        <v>98.20960998535156</v>
       </c>
       <c r="O20">
-        <v>132.2519683837891</v>
+        <v>136.6678466796875</v>
       </c>
       <c r="P20">
-        <v>100.5568542480469</v>
+        <v>102.3501663208008</v>
       </c>
       <c r="Q20">
-        <v>127.9355392456055</v>
+        <v>124.6504287719727</v>
       </c>
       <c r="R20">
-        <v>96.27931213378906</v>
+        <v>93.99433135986328</v>
       </c>
       <c r="S20">
-        <v>121.0259323120117</v>
+        <v>120.7518005371094</v>
       </c>
       <c r="T20">
-        <v>39.45928955078125</v>
+        <v>40.86269378662109</v>
       </c>
       <c r="U20">
-        <v>101.8762359619141</v>
+        <v>103.7357788085938</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1674,64 +1674,64 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>147.9897003173828</v>
+        <v>150.5329132080078</v>
       </c>
       <c r="C21">
-        <v>147.0720520019531</v>
+        <v>149.4488525390625</v>
       </c>
       <c r="D21">
-        <v>133.8639068603516</v>
+        <v>135.9363403320312</v>
       </c>
       <c r="E21">
-        <v>145.0865173339844</v>
+        <v>144.7974243164062</v>
       </c>
       <c r="F21">
-        <v>152.3953247070312</v>
+        <v>155.3277893066406</v>
       </c>
       <c r="G21">
-        <v>145.3021240234375</v>
+        <v>148.2021484375</v>
       </c>
       <c r="H21">
-        <v>146.382568359375</v>
+        <v>146.4247131347656</v>
       </c>
       <c r="I21">
-        <v>158.1299285888672</v>
+        <v>158.0295104980469</v>
       </c>
       <c r="J21">
-        <v>142.4309997558594</v>
+        <v>143.543212890625</v>
       </c>
       <c r="K21">
-        <v>156.8601531982422</v>
+        <v>156.8311920166016</v>
       </c>
       <c r="L21">
-        <v>155.4783020019531</v>
+        <v>152.6629486083984</v>
       </c>
       <c r="M21">
-        <v>172.1138153076172</v>
+        <v>171.6727142333984</v>
       </c>
       <c r="N21">
-        <v>135.4020843505859</v>
+        <v>134.5506896972656</v>
       </c>
       <c r="O21">
-        <v>154.1959991455078</v>
+        <v>155.2933349609375</v>
       </c>
       <c r="P21">
-        <v>150.4781646728516</v>
+        <v>145.5014801025391</v>
       </c>
       <c r="Q21">
-        <v>103.7050018310547</v>
+        <v>102.5978698730469</v>
       </c>
       <c r="R21">
-        <v>136.1555023193359</v>
+        <v>131.5074310302734</v>
       </c>
       <c r="S21">
-        <v>104.7324066162109</v>
+        <v>103.7654342651367</v>
       </c>
       <c r="T21">
-        <v>102.3683471679688</v>
+        <v>103.1577072143555</v>
       </c>
       <c r="U21">
-        <v>28.34376907348633</v>
+        <v>28.72713851928711</v>
       </c>
     </row>
   </sheetData>

--- a/code/experiment/dataset_similarity/data/test.xlsx
+++ b/code/experiment/dataset_similarity/data/test.xlsx
@@ -439,64 +439,64 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>37.04856491088867</v>
+        <v>38.27056121826172</v>
       </c>
       <c r="C2">
-        <v>116.2247085571289</v>
+        <v>116.8845748901367</v>
       </c>
       <c r="D2">
-        <v>99.30323028564453</v>
+        <v>100.2678909301758</v>
       </c>
       <c r="E2">
-        <v>93.58077239990234</v>
+        <v>93.27816772460938</v>
       </c>
       <c r="F2">
-        <v>104.8193740844727</v>
+        <v>103.0747680664062</v>
       </c>
       <c r="G2">
-        <v>81.62989807128906</v>
+        <v>81.68666839599609</v>
       </c>
       <c r="H2">
-        <v>91.11948394775391</v>
+        <v>89.89939117431641</v>
       </c>
       <c r="I2">
-        <v>105.6623764038086</v>
+        <v>103.5831909179688</v>
       </c>
       <c r="J2">
-        <v>95.63136291503906</v>
+        <v>95.14640045166016</v>
       </c>
       <c r="K2">
-        <v>100.2190856933594</v>
+        <v>101.417724609375</v>
       </c>
       <c r="L2">
-        <v>139.8076629638672</v>
+        <v>137.5084838867188</v>
       </c>
       <c r="M2">
-        <v>134.2785949707031</v>
+        <v>136.0127563476562</v>
       </c>
       <c r="N2">
-        <v>142.9081420898438</v>
+        <v>142.6006011962891</v>
       </c>
       <c r="O2">
-        <v>131.5299224853516</v>
+        <v>129.2539978027344</v>
       </c>
       <c r="P2">
-        <v>145.1028747558594</v>
+        <v>147.6969146728516</v>
       </c>
       <c r="Q2">
-        <v>104.5076599121094</v>
+        <v>103.6773834228516</v>
       </c>
       <c r="R2">
-        <v>127.7854537963867</v>
+        <v>127.9687042236328</v>
       </c>
       <c r="S2">
-        <v>121.6356658935547</v>
+        <v>115.7042846679688</v>
       </c>
       <c r="T2">
-        <v>146.2567138671875</v>
+        <v>155.1113891601562</v>
       </c>
       <c r="U2">
-        <v>148.4535827636719</v>
+        <v>147.9211730957031</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -504,64 +504,64 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>121.8609085083008</v>
+        <v>118.1269989013672</v>
       </c>
       <c r="C3">
-        <v>10.52995109558105</v>
+        <v>11.90461540222168</v>
       </c>
       <c r="D3">
-        <v>80.73394012451172</v>
+        <v>80.01754760742188</v>
       </c>
       <c r="E3">
-        <v>82.10772705078125</v>
+        <v>75.83526611328125</v>
       </c>
       <c r="F3">
-        <v>80.33177947998047</v>
+        <v>76.68202209472656</v>
       </c>
       <c r="G3">
-        <v>80.99899291992188</v>
+        <v>80.18980407714844</v>
       </c>
       <c r="H3">
-        <v>86.28655242919922</v>
+        <v>82.19631195068359</v>
       </c>
       <c r="I3">
-        <v>74.81045532226562</v>
+        <v>75.79078674316406</v>
       </c>
       <c r="J3">
-        <v>71.09016418457031</v>
+        <v>77.87913513183594</v>
       </c>
       <c r="K3">
-        <v>74.4764404296875</v>
+        <v>74.6812744140625</v>
       </c>
       <c r="L3">
-        <v>148.6530456542969</v>
+        <v>144.7015075683594</v>
       </c>
       <c r="M3">
-        <v>109.624382019043</v>
+        <v>110.1831665039062</v>
       </c>
       <c r="N3">
-        <v>172.6881256103516</v>
+        <v>173.2629699707031</v>
       </c>
       <c r="O3">
-        <v>115.406867980957</v>
+        <v>108.9022903442383</v>
       </c>
       <c r="P3">
-        <v>186.4736480712891</v>
+        <v>190.387451171875</v>
       </c>
       <c r="Q3">
-        <v>85.19211578369141</v>
+        <v>83.95999908447266</v>
       </c>
       <c r="R3">
-        <v>152.3377380371094</v>
+        <v>149.6321716308594</v>
       </c>
       <c r="S3">
-        <v>93.72996520996094</v>
+        <v>88.01016998291016</v>
       </c>
       <c r="T3">
-        <v>174.4438934326172</v>
+        <v>186.9060363769531</v>
       </c>
       <c r="U3">
-        <v>147.7783660888672</v>
+        <v>149.8576965332031</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -569,64 +569,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>104.33251953125</v>
+        <v>101.6527328491211</v>
       </c>
       <c r="C4">
-        <v>87.62348937988281</v>
+        <v>84.74451446533203</v>
       </c>
       <c r="D4">
-        <v>49.01416778564453</v>
+        <v>46.97926712036133</v>
       </c>
       <c r="E4">
-        <v>83.01181793212891</v>
+        <v>81.61512756347656</v>
       </c>
       <c r="F4">
-        <v>90.88107299804688</v>
+        <v>86.52919006347656</v>
       </c>
       <c r="G4">
-        <v>94.04002380371094</v>
+        <v>92.85809326171875</v>
       </c>
       <c r="H4">
-        <v>87.08024597167969</v>
+        <v>85.79481506347656</v>
       </c>
       <c r="I4">
-        <v>95.18822479248047</v>
+        <v>92.36296081542969</v>
       </c>
       <c r="J4">
-        <v>82.62330627441406</v>
+        <v>82.01856231689453</v>
       </c>
       <c r="K4">
-        <v>90.72400665283203</v>
+        <v>88.53341674804688</v>
       </c>
       <c r="L4">
-        <v>132.2798461914062</v>
+        <v>132.3026428222656</v>
       </c>
       <c r="M4">
-        <v>114.7728424072266</v>
+        <v>113.6422729492188</v>
       </c>
       <c r="N4">
-        <v>145.6783294677734</v>
+        <v>149.1383361816406</v>
       </c>
       <c r="O4">
-        <v>114.2616348266602</v>
+        <v>109.5326232910156</v>
       </c>
       <c r="P4">
-        <v>150.4446563720703</v>
+        <v>156.5189361572266</v>
       </c>
       <c r="Q4">
-        <v>97.35181427001953</v>
+        <v>95.09747314453125</v>
       </c>
       <c r="R4">
-        <v>130.6140594482422</v>
+        <v>132.0334167480469</v>
       </c>
       <c r="S4">
-        <v>106.6384963989258</v>
+        <v>101.7119445800781</v>
       </c>
       <c r="T4">
-        <v>148.0071105957031</v>
+        <v>160.4183502197266</v>
       </c>
       <c r="U4">
-        <v>134.3564605712891</v>
+        <v>134.459716796875</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -634,64 +634,64 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>94.57090759277344</v>
+        <v>96.21946716308594</v>
       </c>
       <c r="C5">
-        <v>82.51094055175781</v>
+        <v>80.12797546386719</v>
       </c>
       <c r="D5">
-        <v>80.21111297607422</v>
+        <v>81.53687286376953</v>
       </c>
       <c r="E5">
-        <v>41.59727096557617</v>
+        <v>41.31430816650391</v>
       </c>
       <c r="F5">
-        <v>91.91691589355469</v>
+        <v>91.02345275878906</v>
       </c>
       <c r="G5">
-        <v>67.31576538085938</v>
+        <v>67.47859191894531</v>
       </c>
       <c r="H5">
-        <v>95.36994171142578</v>
+        <v>93.01332855224609</v>
       </c>
       <c r="I5">
-        <v>92.20796203613281</v>
+        <v>89.42564392089844</v>
       </c>
       <c r="J5">
-        <v>71.775146484375</v>
+        <v>73.99600219726562</v>
       </c>
       <c r="K5">
-        <v>85.52301025390625</v>
+        <v>84.28996276855469</v>
       </c>
       <c r="L5">
-        <v>128.7927551269531</v>
+        <v>129.9080657958984</v>
       </c>
       <c r="M5">
-        <v>105.0334548950195</v>
+        <v>107.5677795410156</v>
       </c>
       <c r="N5">
-        <v>148.5506744384766</v>
+        <v>151.5274810791016</v>
       </c>
       <c r="O5">
-        <v>106.4296035766602</v>
+        <v>105.4784774780273</v>
       </c>
       <c r="P5">
-        <v>154.8151397705078</v>
+        <v>160.5914001464844</v>
       </c>
       <c r="Q5">
-        <v>102.5582580566406</v>
+        <v>99.49698638916016</v>
       </c>
       <c r="R5">
-        <v>133.3250427246094</v>
+        <v>132.3800354003906</v>
       </c>
       <c r="S5">
-        <v>113.2513275146484</v>
+        <v>105.0122680664062</v>
       </c>
       <c r="T5">
-        <v>157.3602447509766</v>
+        <v>167.8143157958984</v>
       </c>
       <c r="U5">
-        <v>143.5457153320312</v>
+        <v>144.6568298339844</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -699,64 +699,64 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>106.5623474121094</v>
+        <v>103.3490295410156</v>
       </c>
       <c r="C6">
-        <v>78.00511932373047</v>
+        <v>79.92722320556641</v>
       </c>
       <c r="D6">
-        <v>85.34963989257812</v>
+        <v>86.19331359863281</v>
       </c>
       <c r="E6">
-        <v>88.61574554443359</v>
+        <v>87.25887298583984</v>
       </c>
       <c r="F6">
-        <v>34.34994125366211</v>
+        <v>35.46275329589844</v>
       </c>
       <c r="G6">
-        <v>78.42668914794922</v>
+        <v>78.22544097900391</v>
       </c>
       <c r="H6">
-        <v>77.70036315917969</v>
+        <v>76.40380859375</v>
       </c>
       <c r="I6">
-        <v>65.63207244873047</v>
+        <v>66.39842987060547</v>
       </c>
       <c r="J6">
-        <v>76.28629302978516</v>
+        <v>78.60513305664062</v>
       </c>
       <c r="K6">
-        <v>47.54357528686523</v>
+        <v>49.84818649291992</v>
       </c>
       <c r="L6">
-        <v>136.9450378417969</v>
+        <v>133.5650634765625</v>
       </c>
       <c r="M6">
-        <v>109.8769149780273</v>
+        <v>111.3285064697266</v>
       </c>
       <c r="N6">
-        <v>156.6347045898438</v>
+        <v>155.8102264404297</v>
       </c>
       <c r="O6">
-        <v>115.7106170654297</v>
+        <v>110.4924011230469</v>
       </c>
       <c r="P6">
-        <v>165.6335296630859</v>
+        <v>167.8829193115234</v>
       </c>
       <c r="Q6">
-        <v>87.36752319335938</v>
+        <v>87.64625549316406</v>
       </c>
       <c r="R6">
-        <v>137.5822601318359</v>
+        <v>135.3020324707031</v>
       </c>
       <c r="S6">
-        <v>85.74855041503906</v>
+        <v>81.48440551757812</v>
       </c>
       <c r="T6">
-        <v>152.9503173828125</v>
+        <v>163.4195709228516</v>
       </c>
       <c r="U6">
-        <v>154.0840911865234</v>
+        <v>154.7502899169922</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -764,64 +764,64 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>84.39426422119141</v>
+        <v>83.79304504394531</v>
       </c>
       <c r="C7">
-        <v>82.43405914306641</v>
+        <v>83.21788787841797</v>
       </c>
       <c r="D7">
-        <v>89.60660552978516</v>
+        <v>93.53071594238281</v>
       </c>
       <c r="E7">
-        <v>66.23081207275391</v>
+        <v>64.26484680175781</v>
       </c>
       <c r="F7">
-        <v>80.96720123291016</v>
+        <v>80.03279876708984</v>
       </c>
       <c r="G7">
-        <v>40.05046844482422</v>
+        <v>40.73497009277344</v>
       </c>
       <c r="H7">
-        <v>82.19808959960938</v>
+        <v>81.52460479736328</v>
       </c>
       <c r="I7">
-        <v>82.95951843261719</v>
+        <v>84.34263610839844</v>
       </c>
       <c r="J7">
-        <v>68.121826171875</v>
+        <v>68.76727294921875</v>
       </c>
       <c r="K7">
-        <v>73.56474304199219</v>
+        <v>73.88832855224609</v>
       </c>
       <c r="L7">
-        <v>131.2384796142578</v>
+        <v>130.1314544677734</v>
       </c>
       <c r="M7">
-        <v>109.3285217285156</v>
+        <v>110.1526641845703</v>
       </c>
       <c r="N7">
-        <v>151.9048767089844</v>
+        <v>154.9783477783203</v>
       </c>
       <c r="O7">
-        <v>112.0103378295898</v>
+        <v>108.0009613037109</v>
       </c>
       <c r="P7">
-        <v>161.3418273925781</v>
+        <v>166.8386688232422</v>
       </c>
       <c r="Q7">
-        <v>92.76437377929688</v>
+        <v>93.52153015136719</v>
       </c>
       <c r="R7">
-        <v>135.2824401855469</v>
+        <v>135.187255859375</v>
       </c>
       <c r="S7">
-        <v>109.3485260009766</v>
+        <v>104.8253936767578</v>
       </c>
       <c r="T7">
-        <v>152.7737274169922</v>
+        <v>165.2151336669922</v>
       </c>
       <c r="U7">
-        <v>146.328857421875</v>
+        <v>150.2427215576172</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -829,64 +829,64 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>95.49853515625</v>
+        <v>91.61554718017578</v>
       </c>
       <c r="C8">
-        <v>78.07865905761719</v>
+        <v>84.86197662353516</v>
       </c>
       <c r="D8">
-        <v>83.01023101806641</v>
+        <v>84.02373504638672</v>
       </c>
       <c r="E8">
-        <v>90.25617980957031</v>
+        <v>92.09749603271484</v>
       </c>
       <c r="F8">
-        <v>76.40346527099609</v>
+        <v>76.44480133056641</v>
       </c>
       <c r="G8">
-        <v>77.30220794677734</v>
+        <v>81.06747436523438</v>
       </c>
       <c r="H8">
-        <v>34.49910736083984</v>
+        <v>35.54659652709961</v>
       </c>
       <c r="I8">
-        <v>93.38496398925781</v>
+        <v>96.10142517089844</v>
       </c>
       <c r="J8">
-        <v>80.36553955078125</v>
+        <v>84.57733154296875</v>
       </c>
       <c r="K8">
-        <v>79.37932586669922</v>
+        <v>83.23633575439453</v>
       </c>
       <c r="L8">
-        <v>134.9807281494141</v>
+        <v>129.9723663330078</v>
       </c>
       <c r="M8">
-        <v>105.5031356811523</v>
+        <v>107.5186080932617</v>
       </c>
       <c r="N8">
-        <v>154.4997863769531</v>
+        <v>150.5503234863281</v>
       </c>
       <c r="O8">
-        <v>106.5859451293945</v>
+        <v>101.0136413574219</v>
       </c>
       <c r="P8">
-        <v>160.9879913330078</v>
+        <v>159.7613525390625</v>
       </c>
       <c r="Q8">
-        <v>89.59268951416016</v>
+        <v>91.06773376464844</v>
       </c>
       <c r="R8">
-        <v>136.7579956054688</v>
+        <v>131.6669921875</v>
       </c>
       <c r="S8">
-        <v>92.98548889160156</v>
+        <v>89.29461669921875</v>
       </c>
       <c r="T8">
-        <v>153.2405090332031</v>
+        <v>160.5692901611328</v>
       </c>
       <c r="U8">
-        <v>147.9067230224609</v>
+        <v>146.1683959960938</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -894,64 +894,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>110.5915374755859</v>
+        <v>107.0651397705078</v>
       </c>
       <c r="C9">
-        <v>73.77248382568359</v>
+        <v>75.38658142089844</v>
       </c>
       <c r="D9">
-        <v>90.85931396484375</v>
+        <v>93.44735717773438</v>
       </c>
       <c r="E9">
-        <v>89.19293975830078</v>
+        <v>87.00563049316406</v>
       </c>
       <c r="F9">
-        <v>65.79374694824219</v>
+        <v>64.72427368164062</v>
       </c>
       <c r="G9">
-        <v>84.65431213378906</v>
+        <v>83.33856964111328</v>
       </c>
       <c r="H9">
-        <v>98.28916931152344</v>
+        <v>97.03011322021484</v>
       </c>
       <c r="I9">
-        <v>27.83901214599609</v>
+        <v>28.4770393371582</v>
       </c>
       <c r="J9">
-        <v>81.51232147216797</v>
+        <v>84.53416442871094</v>
       </c>
       <c r="K9">
-        <v>52.56353759765625</v>
+        <v>53.32858276367188</v>
       </c>
       <c r="L9">
-        <v>135.5603790283203</v>
+        <v>132.8274230957031</v>
       </c>
       <c r="M9">
-        <v>108.9211883544922</v>
+        <v>110.0959167480469</v>
       </c>
       <c r="N9">
-        <v>161.2816467285156</v>
+        <v>161.8001708984375</v>
       </c>
       <c r="O9">
-        <v>114.981201171875</v>
+        <v>110.2783126831055</v>
       </c>
       <c r="P9">
-        <v>172.2004241943359</v>
+        <v>175.1133422851562</v>
       </c>
       <c r="Q9">
-        <v>93.6717529296875</v>
+        <v>94.31183624267578</v>
       </c>
       <c r="R9">
-        <v>140.5983123779297</v>
+        <v>138.6192932128906</v>
       </c>
       <c r="S9">
-        <v>104.3409423828125</v>
+        <v>100.6654357910156</v>
       </c>
       <c r="T9">
-        <v>161.3546142578125</v>
+        <v>173.4938354492188</v>
       </c>
       <c r="U9">
-        <v>157.2719421386719</v>
+        <v>160.1268157958984</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -959,64 +959,64 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>99.25003814697266</v>
+        <v>96.03414154052734</v>
       </c>
       <c r="C10">
-        <v>75.61759185791016</v>
+        <v>76.01107025146484</v>
       </c>
       <c r="D10">
-        <v>78.69023895263672</v>
+        <v>81.43658447265625</v>
       </c>
       <c r="E10">
-        <v>73.96133422851562</v>
+        <v>71.02837371826172</v>
       </c>
       <c r="F10">
-        <v>77.19956207275391</v>
+        <v>76.14972686767578</v>
       </c>
       <c r="G10">
-        <v>68.93463134765625</v>
+        <v>68.34339904785156</v>
       </c>
       <c r="H10">
-        <v>86.06492614746094</v>
+        <v>83.94158172607422</v>
       </c>
       <c r="I10">
-        <v>83.13086700439453</v>
+        <v>82.83596801757812</v>
       </c>
       <c r="J10">
-        <v>43.05820465087891</v>
+        <v>43.45114135742188</v>
       </c>
       <c r="K10">
-        <v>70.41397857666016</v>
+        <v>70.28752136230469</v>
       </c>
       <c r="L10">
-        <v>122.4244232177734</v>
+        <v>121.4508056640625</v>
       </c>
       <c r="M10">
-        <v>99.85482788085938</v>
+        <v>101.3024215698242</v>
       </c>
       <c r="N10">
-        <v>145.5808258056641</v>
+        <v>147.3870544433594</v>
       </c>
       <c r="O10">
-        <v>99.7554931640625</v>
+        <v>95.78559112548828</v>
       </c>
       <c r="P10">
-        <v>152.6044158935547</v>
+        <v>155.4462738037109</v>
       </c>
       <c r="Q10">
-        <v>103.711311340332</v>
+        <v>103.5773010253906</v>
       </c>
       <c r="R10">
-        <v>130.5168762207031</v>
+        <v>128.2910003662109</v>
       </c>
       <c r="S10">
-        <v>112.0076141357422</v>
+        <v>106.387809753418</v>
       </c>
       <c r="T10">
-        <v>153.1222534179688</v>
+        <v>163.2806396484375</v>
       </c>
       <c r="U10">
-        <v>142.9146423339844</v>
+        <v>142.3344421386719</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1024,64 +1024,64 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>103.7990875244141</v>
+        <v>103.6933670043945</v>
       </c>
       <c r="C11">
-        <v>77.00387573242188</v>
+        <v>79.16799163818359</v>
       </c>
       <c r="D11">
-        <v>86.09373474121094</v>
+        <v>89.09149169921875</v>
       </c>
       <c r="E11">
-        <v>83.88867950439453</v>
+        <v>82.13874053955078</v>
       </c>
       <c r="F11">
-        <v>46.4107780456543</v>
+        <v>48.8734130859375</v>
       </c>
       <c r="G11">
-        <v>75.11128234863281</v>
+        <v>73.94822692871094</v>
       </c>
       <c r="H11">
-        <v>82.85871124267578</v>
+        <v>83.03907775878906</v>
       </c>
       <c r="I11">
-        <v>53.81736755371094</v>
+        <v>54.22412490844727</v>
       </c>
       <c r="J11">
-        <v>70.65770721435547</v>
+        <v>73.49038696289062</v>
       </c>
       <c r="K11">
-        <v>30.21752738952637</v>
+        <v>31.35883140563965</v>
       </c>
       <c r="L11">
-        <v>133.5157470703125</v>
+        <v>129.9999084472656</v>
       </c>
       <c r="M11">
-        <v>100.6444320678711</v>
+        <v>100.9220352172852</v>
       </c>
       <c r="N11">
-        <v>156.6451568603516</v>
+        <v>156.8819885253906</v>
       </c>
       <c r="O11">
-        <v>107.4190826416016</v>
+        <v>102.7770538330078</v>
       </c>
       <c r="P11">
-        <v>165.0131072998047</v>
+        <v>167.9772033691406</v>
       </c>
       <c r="Q11">
-        <v>93.22045135498047</v>
+        <v>93.66619110107422</v>
       </c>
       <c r="R11">
-        <v>137.0732727050781</v>
+        <v>134.3389739990234</v>
       </c>
       <c r="S11">
-        <v>95.4530029296875</v>
+        <v>91.27366638183594</v>
       </c>
       <c r="T11">
-        <v>156.641357421875</v>
+        <v>166.9282379150391</v>
       </c>
       <c r="U11">
-        <v>156.4654235839844</v>
+        <v>158.6650695800781</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -1089,64 +1089,64 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>143.2130432128906</v>
+        <v>135.1540832519531</v>
       </c>
       <c r="C12">
-        <v>152.2440643310547</v>
+        <v>142.1393585205078</v>
       </c>
       <c r="D12">
-        <v>136.7625885009766</v>
+        <v>130.8344879150391</v>
       </c>
       <c r="E12">
-        <v>132.0304260253906</v>
+        <v>126.4594421386719</v>
       </c>
       <c r="F12">
-        <v>138.8352661132812</v>
+        <v>130.4182739257812</v>
       </c>
       <c r="G12">
-        <v>133.9935913085938</v>
+        <v>126.2466735839844</v>
       </c>
       <c r="H12">
-        <v>133.7742156982422</v>
+        <v>128.5135192871094</v>
       </c>
       <c r="I12">
-        <v>137.6748809814453</v>
+        <v>128.768798828125</v>
       </c>
       <c r="J12">
-        <v>127.9531936645508</v>
+        <v>116.9554748535156</v>
       </c>
       <c r="K12">
-        <v>136.4179229736328</v>
+        <v>127.9574508666992</v>
       </c>
       <c r="L12">
-        <v>27.0704402923584</v>
+        <v>25.67044639587402</v>
       </c>
       <c r="M12">
-        <v>87.63490295410156</v>
+        <v>83.74339294433594</v>
       </c>
       <c r="N12">
-        <v>74.41683959960938</v>
+        <v>72.5283203125</v>
       </c>
       <c r="O12">
-        <v>61.7815055847168</v>
+        <v>58.41662216186523</v>
       </c>
       <c r="P12">
-        <v>80.23681640625</v>
+        <v>82.11882019042969</v>
       </c>
       <c r="Q12">
-        <v>150.4899291992188</v>
+        <v>145.6296844482422</v>
       </c>
       <c r="R12">
-        <v>58.1044921875</v>
+        <v>50.95600891113281</v>
       </c>
       <c r="S12">
-        <v>158.2990875244141</v>
+        <v>147.1295928955078</v>
       </c>
       <c r="T12">
-        <v>121.7659149169922</v>
+        <v>127.2426681518555</v>
       </c>
       <c r="U12">
-        <v>150.9515075683594</v>
+        <v>150.3713684082031</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -1154,64 +1154,64 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>136.293701171875</v>
+        <v>136.1974487304688</v>
       </c>
       <c r="C13">
-        <v>111.1760635375977</v>
+        <v>112.3958969116211</v>
       </c>
       <c r="D13">
-        <v>113.8727645874023</v>
+        <v>115.3757400512695</v>
       </c>
       <c r="E13">
-        <v>105.4872665405273</v>
+        <v>105.5198364257812</v>
       </c>
       <c r="F13">
-        <v>108.0711135864258</v>
+        <v>113.5170593261719</v>
       </c>
       <c r="G13">
-        <v>109.0649871826172</v>
+        <v>111.475830078125</v>
       </c>
       <c r="H13">
-        <v>107.4079513549805</v>
+        <v>109.0715866088867</v>
       </c>
       <c r="I13">
-        <v>109.1595764160156</v>
+        <v>112.0835952758789</v>
       </c>
       <c r="J13">
-        <v>100.556526184082</v>
+        <v>102.491569519043</v>
       </c>
       <c r="K13">
-        <v>99.59660339355469</v>
+        <v>101.195915222168</v>
       </c>
       <c r="L13">
-        <v>83.77870941162109</v>
+        <v>85.68808746337891</v>
       </c>
       <c r="M13">
-        <v>14.67265701293945</v>
+        <v>15.22378730773926</v>
       </c>
       <c r="N13">
-        <v>117.6241760253906</v>
+        <v>119.9587326049805</v>
       </c>
       <c r="O13">
-        <v>51.48383712768555</v>
+        <v>49.01577758789062</v>
       </c>
       <c r="P13">
-        <v>116.2650604248047</v>
+        <v>118.7660598754883</v>
       </c>
       <c r="Q13">
-        <v>136.8275451660156</v>
+        <v>141.3664855957031</v>
       </c>
       <c r="R13">
-        <v>102.9555511474609</v>
+        <v>99.53153991699219</v>
       </c>
       <c r="S13">
-        <v>141.541015625</v>
+        <v>139.8159332275391</v>
       </c>
       <c r="T13">
-        <v>161.5540771484375</v>
+        <v>170.3750457763672</v>
       </c>
       <c r="U13">
-        <v>170.1242218017578</v>
+        <v>173.8732147216797</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -1219,64 +1219,64 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>151.4696960449219</v>
+        <v>146.1223297119141</v>
       </c>
       <c r="C14">
-        <v>188.3257141113281</v>
+        <v>180.8143310546875</v>
       </c>
       <c r="D14">
-        <v>161.3003082275391</v>
+        <v>155.2800140380859</v>
       </c>
       <c r="E14">
-        <v>161.5663757324219</v>
+        <v>157.5790863037109</v>
       </c>
       <c r="F14">
-        <v>169.3002014160156</v>
+        <v>161.9395446777344</v>
       </c>
       <c r="G14">
-        <v>164.8320465087891</v>
+        <v>158.6325378417969</v>
       </c>
       <c r="H14">
-        <v>160.1350708007812</v>
+        <v>157.1325225830078</v>
       </c>
       <c r="I14">
-        <v>173.6161956787109</v>
+        <v>166.2977752685547</v>
       </c>
       <c r="J14">
-        <v>160.5693817138672</v>
+        <v>150.7849731445312</v>
       </c>
       <c r="K14">
-        <v>170.8674163818359</v>
+        <v>163.4393310546875</v>
       </c>
       <c r="L14">
-        <v>78.91497802734375</v>
+        <v>73.74513244628906</v>
       </c>
       <c r="M14">
-        <v>126.9706344604492</v>
+        <v>124.6567993164062</v>
       </c>
       <c r="N14">
-        <v>27.79583168029785</v>
+        <v>28.15482902526855</v>
       </c>
       <c r="O14">
-        <v>103.1646423339844</v>
+        <v>99.49917602539062</v>
       </c>
       <c r="P14">
-        <v>44.86675643920898</v>
+        <v>46.09672927856445</v>
       </c>
       <c r="Q14">
-        <v>159.8186798095703</v>
+        <v>157.0454406738281</v>
       </c>
       <c r="R14">
-        <v>46.41567230224609</v>
+        <v>47.55601119995117</v>
       </c>
       <c r="S14">
-        <v>162.4081420898438</v>
+        <v>154.0807952880859</v>
       </c>
       <c r="T14">
-        <v>96.74531555175781</v>
+        <v>99.95649719238281</v>
       </c>
       <c r="U14">
-        <v>138.8517303466797</v>
+        <v>137.7147369384766</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -1284,64 +1284,64 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>133.8615264892578</v>
+        <v>135.2567901611328</v>
       </c>
       <c r="C15">
-        <v>113.3209686279297</v>
+        <v>119.3757553100586</v>
       </c>
       <c r="D15">
-        <v>113.0457077026367</v>
+        <v>117.0122451782227</v>
       </c>
       <c r="E15">
-        <v>107.0497283935547</v>
+        <v>109.648681640625</v>
       </c>
       <c r="F15">
-        <v>113.0812530517578</v>
+        <v>119.1430587768555</v>
       </c>
       <c r="G15">
-        <v>109.9263153076172</v>
+        <v>115.2375640869141</v>
       </c>
       <c r="H15">
-        <v>104.8334045410156</v>
+        <v>109.0557022094727</v>
       </c>
       <c r="I15">
-        <v>113.7844696044922</v>
+        <v>118.7479553222656</v>
       </c>
       <c r="J15">
-        <v>99.54140472412109</v>
+        <v>102.2627410888672</v>
       </c>
       <c r="K15">
-        <v>105.9109725952148</v>
+        <v>110.9358520507812</v>
       </c>
       <c r="L15">
-        <v>58.81225204467773</v>
+        <v>62.71054458618164</v>
       </c>
       <c r="M15">
-        <v>52.59304046630859</v>
+        <v>54.19643402099609</v>
       </c>
       <c r="N15">
-        <v>96.44248962402344</v>
+        <v>97.65103912353516</v>
       </c>
       <c r="O15">
-        <v>24.39241218566895</v>
+        <v>25.27384567260742</v>
       </c>
       <c r="P15">
-        <v>94.29019165039062</v>
+        <v>94.59868621826172</v>
       </c>
       <c r="Q15">
-        <v>136.2827453613281</v>
+        <v>144.3281860351562</v>
       </c>
       <c r="R15">
-        <v>77.78964233398438</v>
+        <v>74.18122100830078</v>
       </c>
       <c r="S15">
-        <v>139.9627532958984</v>
+        <v>140.6243286132812</v>
       </c>
       <c r="T15">
-        <v>134.0281372070312</v>
+        <v>141.8674011230469</v>
       </c>
       <c r="U15">
-        <v>153.0466613769531</v>
+        <v>156.7489013671875</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -1349,64 +1349,64 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>149.9081115722656</v>
+        <v>139.4524993896484</v>
       </c>
       <c r="C16">
-        <v>195.4469146728516</v>
+        <v>182.9878845214844</v>
       </c>
       <c r="D16">
-        <v>163.0534362792969</v>
+        <v>152.2013549804688</v>
       </c>
       <c r="E16">
-        <v>163.4985046386719</v>
+        <v>155.2014007568359</v>
       </c>
       <c r="F16">
-        <v>173.3729553222656</v>
+        <v>161.2384796142578</v>
       </c>
       <c r="G16">
-        <v>170.2787628173828</v>
+        <v>159.1088562011719</v>
       </c>
       <c r="H16">
-        <v>162.3363647460938</v>
+        <v>153.9743499755859</v>
       </c>
       <c r="I16">
-        <v>177.8876037597656</v>
+        <v>166.2740783691406</v>
       </c>
       <c r="J16">
-        <v>163.0993957519531</v>
+        <v>147.668701171875</v>
       </c>
       <c r="K16">
-        <v>174.2469787597656</v>
+        <v>161.8469696044922</v>
       </c>
       <c r="L16">
-        <v>80.60258483886719</v>
+        <v>76.76305389404297</v>
       </c>
       <c r="M16">
-        <v>122.012939453125</v>
+        <v>115.5019607543945</v>
       </c>
       <c r="N16">
-        <v>45.50538635253906</v>
+        <v>43.26416397094727</v>
       </c>
       <c r="O16">
-        <v>95.41283416748047</v>
+        <v>89.50636291503906</v>
       </c>
       <c r="P16">
-        <v>26.66733551025391</v>
+        <v>27.96971702575684</v>
       </c>
       <c r="Q16">
-        <v>173.2882537841797</v>
+        <v>165.3961791992188</v>
       </c>
       <c r="R16">
-        <v>48.73561096191406</v>
+        <v>47.63449859619141</v>
       </c>
       <c r="S16">
-        <v>170.932861328125</v>
+        <v>159.1457214355469</v>
       </c>
       <c r="T16">
-        <v>99.38751220703125</v>
+        <v>100.5631637573242</v>
       </c>
       <c r="U16">
-        <v>147.0574645996094</v>
+        <v>142.5186920166016</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -1414,64 +1414,64 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>107.1289443969727</v>
+        <v>108.8282012939453</v>
       </c>
       <c r="C17">
-        <v>82.85788726806641</v>
+        <v>83.77528381347656</v>
       </c>
       <c r="D17">
-        <v>90.38301086425781</v>
+        <v>92.47483825683594</v>
       </c>
       <c r="E17">
-        <v>98.930908203125</v>
+        <v>98.7166748046875</v>
       </c>
       <c r="F17">
-        <v>87.04315185546875</v>
+        <v>86.12484741210938</v>
       </c>
       <c r="G17">
-        <v>90.42366790771484</v>
+        <v>92.78468322753906</v>
       </c>
       <c r="H17">
-        <v>90.99691009521484</v>
+        <v>90.27928161621094</v>
       </c>
       <c r="I17">
-        <v>90.2518310546875</v>
+        <v>93.66729736328125</v>
       </c>
       <c r="J17">
-        <v>98.60749053955078</v>
+        <v>104.2667922973633</v>
       </c>
       <c r="K17">
-        <v>89.28292846679688</v>
+        <v>91.70254516601562</v>
       </c>
       <c r="L17">
-        <v>150.2666473388672</v>
+        <v>144.8954315185547</v>
       </c>
       <c r="M17">
-        <v>134.8755950927734</v>
+        <v>137.9173889160156</v>
       </c>
       <c r="N17">
-        <v>149.7983856201172</v>
+        <v>148.9604339599609</v>
       </c>
       <c r="O17">
-        <v>137.8363494873047</v>
+        <v>133.0860137939453</v>
       </c>
       <c r="P17">
-        <v>168.188232421875</v>
+        <v>170.8889007568359</v>
       </c>
       <c r="Q17">
-        <v>37.27532577514648</v>
+        <v>36.30318450927734</v>
       </c>
       <c r="R17">
-        <v>132.6991271972656</v>
+        <v>133.4140319824219</v>
       </c>
       <c r="S17">
-        <v>56.67938232421875</v>
+        <v>51.5589599609375</v>
       </c>
       <c r="T17">
-        <v>124.8406295776367</v>
+        <v>131.8910980224609</v>
       </c>
       <c r="U17">
-        <v>103.4997482299805</v>
+        <v>102.0087127685547</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -1479,64 +1479,64 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>130.771240234375</v>
+        <v>124.8451690673828</v>
       </c>
       <c r="C18">
-        <v>156.9263916015625</v>
+        <v>150.1166839599609</v>
       </c>
       <c r="D18">
-        <v>138.0268402099609</v>
+        <v>132.0903625488281</v>
       </c>
       <c r="E18">
-        <v>136.837890625</v>
+        <v>132.577880859375</v>
       </c>
       <c r="F18">
-        <v>141.5348663330078</v>
+        <v>135.0406646728516</v>
       </c>
       <c r="G18">
-        <v>138.9014434814453</v>
+        <v>133.2795257568359</v>
       </c>
       <c r="H18">
-        <v>135.5519104003906</v>
+        <v>131.7521820068359</v>
       </c>
       <c r="I18">
-        <v>143.5870819091797</v>
+        <v>137.3155822753906</v>
       </c>
       <c r="J18">
-        <v>135.2148590087891</v>
+        <v>127.1347579956055</v>
       </c>
       <c r="K18">
-        <v>142.2752838134766</v>
+        <v>135.4388580322266</v>
       </c>
       <c r="L18">
-        <v>56.80648040771484</v>
+        <v>52.85014343261719</v>
       </c>
       <c r="M18">
-        <v>103.7635650634766</v>
+        <v>102.8134536743164</v>
       </c>
       <c r="N18">
-        <v>44.94369506835938</v>
+        <v>43.23144912719727</v>
       </c>
       <c r="O18">
-        <v>77.58258819580078</v>
+        <v>76.05588531494141</v>
       </c>
       <c r="P18">
-        <v>49.71705627441406</v>
+        <v>50.62994384765625</v>
       </c>
       <c r="Q18">
-        <v>136.0722808837891</v>
+        <v>132.8360595703125</v>
       </c>
       <c r="R18">
-        <v>28.88288116455078</v>
+        <v>28.09926414489746</v>
       </c>
       <c r="S18">
-        <v>141.1864929199219</v>
+        <v>132.3882293701172</v>
       </c>
       <c r="T18">
-        <v>93.82906341552734</v>
+        <v>96.597412109375</v>
       </c>
       <c r="U18">
-        <v>132.6527099609375</v>
+        <v>130.4239807128906</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -1544,64 +1544,64 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>123.0758438110352</v>
+        <v>122.2542495727539</v>
       </c>
       <c r="C19">
-        <v>91.72123718261719</v>
+        <v>91.32736206054688</v>
       </c>
       <c r="D19">
-        <v>99.92296600341797</v>
+        <v>99.96429443359375</v>
       </c>
       <c r="E19">
-        <v>107.5042877197266</v>
+        <v>107.2297439575195</v>
       </c>
       <c r="F19">
-        <v>85.15316772460938</v>
+        <v>86.01027679443359</v>
       </c>
       <c r="G19">
-        <v>106.242431640625</v>
+        <v>106.7744827270508</v>
       </c>
       <c r="H19">
-        <v>92.95436096191406</v>
+        <v>92.43287658691406</v>
       </c>
       <c r="I19">
-        <v>101.7917938232422</v>
+        <v>104.6286697387695</v>
       </c>
       <c r="J19">
-        <v>106.908561706543</v>
+        <v>111.6589508056641</v>
       </c>
       <c r="K19">
-        <v>93.00053405761719</v>
+        <v>95.24983215332031</v>
       </c>
       <c r="L19">
-        <v>156.66796875</v>
+        <v>151.4470062255859</v>
       </c>
       <c r="M19">
-        <v>139.3087005615234</v>
+        <v>140.9937744140625</v>
       </c>
       <c r="N19">
-        <v>151.0215454101562</v>
+        <v>150.8268737792969</v>
       </c>
       <c r="O19">
-        <v>139.25</v>
+        <v>135.2480621337891</v>
       </c>
       <c r="P19">
-        <v>164.8016815185547</v>
+        <v>167.5836791992188</v>
       </c>
       <c r="Q19">
-        <v>55.13680267333984</v>
+        <v>53.8591423034668</v>
       </c>
       <c r="R19">
-        <v>135.5445709228516</v>
+        <v>137.4484405517578</v>
       </c>
       <c r="S19">
-        <v>18.27492713928223</v>
+        <v>20.29476165771484</v>
       </c>
       <c r="T19">
-        <v>117.5656280517578</v>
+        <v>126.567756652832</v>
       </c>
       <c r="U19">
-        <v>105.9176483154297</v>
+        <v>103.7415084838867</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -1609,64 +1609,64 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>147.4977264404297</v>
+        <v>155.4790649414062</v>
       </c>
       <c r="C20">
-        <v>177.7483825683594</v>
+        <v>187.4177551269531</v>
       </c>
       <c r="D20">
-        <v>152.3160400390625</v>
+        <v>161.832763671875</v>
       </c>
       <c r="E20">
-        <v>157.8908996582031</v>
+        <v>168.5926208496094</v>
       </c>
       <c r="F20">
-        <v>155.825927734375</v>
+        <v>164.1007080078125</v>
       </c>
       <c r="G20">
-        <v>155.3903045654297</v>
+        <v>165.3863677978516</v>
       </c>
       <c r="H20">
-        <v>151.379150390625</v>
+        <v>161.5829467773438</v>
       </c>
       <c r="I20">
-        <v>164.1264190673828</v>
+        <v>173.2996978759766</v>
       </c>
       <c r="J20">
-        <v>156.7554626464844</v>
+        <v>162.1309051513672</v>
       </c>
       <c r="K20">
-        <v>161.0976867675781</v>
+        <v>169.3458251953125</v>
       </c>
       <c r="L20">
-        <v>124.4977111816406</v>
+        <v>127.4046936035156</v>
       </c>
       <c r="M20">
-        <v>163.6216278076172</v>
+        <v>171.9793243408203</v>
       </c>
       <c r="N20">
-        <v>98.20960998535156</v>
+        <v>97.56170654296875</v>
       </c>
       <c r="O20">
-        <v>136.6678466796875</v>
+        <v>140.9447326660156</v>
       </c>
       <c r="P20">
-        <v>102.3501663208008</v>
+        <v>103.9702453613281</v>
       </c>
       <c r="Q20">
-        <v>124.6504287719727</v>
+        <v>134.6317596435547</v>
       </c>
       <c r="R20">
-        <v>93.99433135986328</v>
+        <v>100.3312683105469</v>
       </c>
       <c r="S20">
-        <v>120.7518005371094</v>
+        <v>126.3594665527344</v>
       </c>
       <c r="T20">
-        <v>40.86269378662109</v>
+        <v>40.552490234375</v>
       </c>
       <c r="U20">
-        <v>103.7357788085938</v>
+        <v>107.4215469360352</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -1674,64 +1674,64 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>150.5329132080078</v>
+        <v>150.8338165283203</v>
       </c>
       <c r="C21">
-        <v>149.4488525390625</v>
+        <v>152.1555023193359</v>
       </c>
       <c r="D21">
-        <v>135.9363403320312</v>
+        <v>139.4471435546875</v>
       </c>
       <c r="E21">
-        <v>144.7974243164062</v>
+        <v>146.7972259521484</v>
       </c>
       <c r="F21">
-        <v>155.3277893066406</v>
+        <v>156.8820953369141</v>
       </c>
       <c r="G21">
-        <v>148.2021484375</v>
+        <v>151.1933898925781</v>
       </c>
       <c r="H21">
-        <v>146.4247131347656</v>
+        <v>149.6161956787109</v>
       </c>
       <c r="I21">
-        <v>158.0295104980469</v>
+        <v>160.9517974853516</v>
       </c>
       <c r="J21">
-        <v>143.543212890625</v>
+        <v>144.4831848144531</v>
       </c>
       <c r="K21">
-        <v>156.8311920166016</v>
+        <v>161.2646636962891</v>
       </c>
       <c r="L21">
-        <v>152.6629486083984</v>
+        <v>147.2878265380859</v>
       </c>
       <c r="M21">
-        <v>171.6727142333984</v>
+        <v>173.3493194580078</v>
       </c>
       <c r="N21">
-        <v>134.5506896972656</v>
+        <v>134.16015625</v>
       </c>
       <c r="O21">
-        <v>155.2933349609375</v>
+        <v>152.2953948974609</v>
       </c>
       <c r="P21">
-        <v>145.5014801025391</v>
+        <v>145.7089538574219</v>
       </c>
       <c r="Q21">
-        <v>102.5978698730469</v>
+        <v>106.8826293945312</v>
       </c>
       <c r="R21">
-        <v>131.5074310302734</v>
+        <v>132.5118713378906</v>
       </c>
       <c r="S21">
-        <v>103.7654342651367</v>
+        <v>107.9582443237305</v>
       </c>
       <c r="T21">
-        <v>103.1577072143555</v>
+        <v>109.0406646728516</v>
       </c>
       <c r="U21">
-        <v>28.72713851928711</v>
+        <v>28.38935470581055</v>
       </c>
     </row>
   </sheetData>
